--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.35/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.35/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="940">
   <si>
     <t>anchor score</t>
   </si>
@@ -100,766 +100,766 @@
     <t>selfish</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>announces</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>announces</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>groups</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>social</t>
@@ -3199,10 +3199,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3260,7 +3260,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02980604146112298</v>
+        <v>0.03022244119047722</v>
       </c>
       <c r="C3">
         <v>243</v>
@@ -3310,7 +3310,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02912360665941161</v>
+        <v>0.02953047256096436</v>
       </c>
       <c r="C4">
         <v>232</v>
@@ -3360,7 +3360,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01282647802169967</v>
+        <v>0.01300566793471681</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -3381,7 +3381,7 @@
         <v>2249</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5">
         <v>0.01086932461342209</v>
@@ -3410,7 +3410,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01239155502261124</v>
+        <v>0.01256466892518779</v>
       </c>
       <c r="C6">
         <v>42</v>
@@ -3431,7 +3431,7 @@
         <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6">
         <v>0.009405379727695461</v>
@@ -3460,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01098393955692459</v>
+        <v>0.01113738863082166</v>
       </c>
       <c r="C7">
         <v>33</v>
@@ -3481,7 +3481,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K7">
         <v>0.009058662858412617</v>
@@ -3510,7 +3510,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01081623597510976</v>
+        <v>0.01096734217747286</v>
       </c>
       <c r="C8">
         <v>32</v>
@@ -3531,7 +3531,7 @@
         <v>1580</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>0.008681393151965778</v>
@@ -3560,7 +3560,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01047277545006241</v>
+        <v>0.01061908340137764</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -3581,7 +3581,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="K9">
         <v>0.008073531639382275</v>
@@ -3590,19 +3590,19 @@
         <v>224</v>
       </c>
       <c r="M9">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="N9">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3610,7 +3610,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009367135127772198</v>
+        <v>0.009497996937688033</v>
       </c>
       <c r="C10">
         <v>24</v>
@@ -3631,7 +3631,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K10">
         <v>0.0079646700515686</v>
@@ -3660,7 +3660,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008550985347799783</v>
+        <v>0.00867044528981121</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -3681,7 +3681,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>0.007552097323961954</v>
@@ -3710,7 +3710,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008112176981332316</v>
+        <v>0.00822550663310464</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -3731,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12">
         <v>0.007396367251670883</v>
@@ -3760,7 +3760,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008112176981332316</v>
+        <v>0.00822550663310464</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -3781,7 +3781,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="K13">
         <v>0.007074630561632309</v>
@@ -3790,19 +3790,19 @@
         <v>172</v>
       </c>
       <c r="M13">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3810,7 +3810,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008112176981332316</v>
+        <v>0.00822550663310464</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3831,7 +3831,7 @@
         <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>0.006991883497962475</v>
@@ -3860,7 +3860,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007883618956770018</v>
+        <v>0.007993755581394016</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -3881,7 +3881,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K15">
         <v>0.006971043262342768</v>
@@ -3910,7 +3910,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007883618956770018</v>
+        <v>0.007993755581394016</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -3931,7 +3931,7 @@
         <v>60</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16">
         <v>0.006694218795223481</v>
@@ -3960,7 +3960,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007648233804913998</v>
+        <v>0.007755082025284292</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3981,7 +3981,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>0.006473226277681675</v>
@@ -4010,7 +4010,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007648233804913998</v>
+        <v>0.007755082025284292</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -4031,7 +4031,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K18">
         <v>0.006079129610432357</v>
@@ -4060,7 +4060,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007405370538583126</v>
+        <v>0.007508825883099637</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -4081,7 +4081,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K19">
         <v>0.005884546826343694</v>
@@ -4110,7 +4110,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007405370538583126</v>
+        <v>0.007508825883099637</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -4131,7 +4131,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K20">
         <v>0.00573427826754848</v>
@@ -4160,7 +4160,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007405370538583126</v>
+        <v>0.007508825883099637</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K21">
         <v>0.005631872203377567</v>
@@ -4210,7 +4210,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007154267627982657</v>
+        <v>0.007254214986235697</v>
       </c>
       <c r="C22">
         <v>14</v>
@@ -4231,7 +4231,7 @@
         <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K22">
         <v>0.005631872203377567</v>
@@ -4260,28 +4260,28 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007154267627982657</v>
+        <v>0.007254214986235697</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E23">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F23">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>102</v>
+        <v>576</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K23">
         <v>0.005605978400917312</v>
@@ -4310,28 +4310,28 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007154267627982657</v>
+        <v>0.007254214986235697</v>
       </c>
       <c r="C24">
         <v>14</v>
       </c>
       <c r="D24">
-        <v>318</v>
+        <v>420</v>
       </c>
       <c r="E24">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F24">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>576</v>
+        <v>2781</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K24">
         <v>0.005285367123298598</v>
@@ -4360,28 +4360,28 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007154267627982657</v>
+        <v>0.006990336471897909</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>420</v>
+        <v>13</v>
       </c>
       <c r="E25">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2781</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K25">
         <v>0.00523002143980259</v>
@@ -4410,7 +4410,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006894024787588616</v>
+        <v>0.006990336471897909</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -4428,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K26">
         <v>0.004824857996878052</v>
@@ -4460,7 +4460,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006894024787588616</v>
+        <v>0.006990336471897909</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -4478,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K27">
         <v>0.004764165543176175</v>
@@ -4510,7 +4510,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006894024787588616</v>
+        <v>0.006990336471897909</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -4528,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K28">
         <v>0.004764165543176175</v>
@@ -4560,13 +4560,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006894024787588616</v>
+        <v>0.00671609804232827</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4578,10 +4578,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K29">
         <v>0.004577262197103665</v>
@@ -4610,28 +4610,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006623564769138439</v>
+        <v>0.00671609804232827</v>
       </c>
       <c r="C30">
         <v>12</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K30">
         <v>0.004415470054581607</v>
@@ -4660,28 +4660,28 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006623564769138439</v>
+        <v>0.00671609804232827</v>
       </c>
       <c r="C31">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="E31">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F31">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>218</v>
+        <v>484</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K31">
         <v>0.004415470054581607</v>
@@ -4710,28 +4710,28 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006623564769138439</v>
+        <v>0.00671609804232827</v>
       </c>
       <c r="C32">
         <v>12</v>
       </c>
       <c r="D32">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="E32">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F32">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>484</v>
+        <v>228</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K32">
         <v>0.004315484185121117</v>
@@ -4760,28 +4760,28 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006623564769138439</v>
+        <v>0.006430174324074361</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K33">
         <v>0.004178449594948892</v>
@@ -4810,28 +4810,28 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006623564769138439</v>
+        <v>0.006430174324074361</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>228</v>
+        <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K34">
         <v>0.004108218549478303</v>
@@ -4860,7 +4860,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006341580459952993</v>
+        <v>0.006430174324074361</v>
       </c>
       <c r="C35">
         <v>11</v>
@@ -4878,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K35">
         <v>0.004108218549478303</v>
@@ -4910,7 +4910,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006341580459952993</v>
+        <v>0.006430174324074361</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -4928,10 +4928,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K36">
         <v>0.003964025342473949</v>
@@ -4960,25 +4960,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006341580459952993</v>
+        <v>0.006430174324074361</v>
       </c>
       <c r="C37">
         <v>11</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>282</v>
@@ -5010,28 +5010,28 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006341580459952993</v>
+        <v>0.006430174324074361</v>
       </c>
       <c r="C38">
         <v>11</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>688</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K38">
         <v>0.003776048661980977</v>
@@ -5060,28 +5060,28 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006341580459952993</v>
+        <v>0.006430174324074361</v>
       </c>
       <c r="C39">
         <v>11</v>
       </c>
       <c r="D39">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="E39">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="F39">
-        <v>0.05000000000000004</v>
+        <v>0.23</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>88</v>
+        <v>921</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K39">
         <v>0.003737318933944874</v>
@@ -5110,28 +5110,28 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006341580459952993</v>
+        <v>0.006130930660332467</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>688</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K40">
         <v>0.003658629722556233</v>
@@ -5160,28 +5160,28 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006341580459952993</v>
+        <v>0.006130930660332467</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c r="E41">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="F41">
-        <v>0.23</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>921</v>
+        <v>632</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K41">
         <v>0.003578210457689842</v>
@@ -5210,13 +5210,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.006046459725256035</v>
+        <v>0.005816311518963219</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5228,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K42">
         <v>0.003495941748981238</v>
@@ -5260,28 +5260,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006046459725256035</v>
+        <v>0.005816311518963219</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>632</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K43">
         <v>0.003454072672750896</v>
@@ -5310,7 +5310,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005736175353685499</v>
+        <v>0.005816311518963219</v>
       </c>
       <c r="C44">
         <v>9</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>283</v>
@@ -5360,25 +5360,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005736175353685499</v>
+        <v>0.005816311518963219</v>
       </c>
       <c r="C45">
         <v>9</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>263</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>284</v>
@@ -5410,28 +5410,28 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005736175353685499</v>
+        <v>0.005816311518963219</v>
       </c>
       <c r="C46">
         <v>9</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K46">
         <v>0.003281258187668659</v>
@@ -5460,28 +5460,28 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005736175353685499</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="E47">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>263</v>
+        <v>13</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K47">
         <v>0.003281258187668659</v>
@@ -5510,28 +5510,28 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005736175353685499</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>238</v>
+        <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K48">
         <v>0.003281258187668659</v>
@@ -5560,7 +5560,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -5578,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>0.003236613138840837</v>
@@ -5610,7 +5610,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C50">
         <v>8</v>
@@ -5628,10 +5628,10 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K50">
         <v>0.003191343592735145</v>
@@ -5660,7 +5660,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -5678,10 +5678,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K51">
         <v>0.003191343592735145</v>
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>285</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -5778,10 +5778,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K53">
         <v>0.003098821156446546</v>
@@ -5810,7 +5810,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005408117987554879</v>
+        <v>0.005483671088736428</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>286</v>
@@ -5860,13 +5860,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.005408117987554879</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -5878,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K55">
         <v>0.003051508131402444</v>
@@ -5910,13 +5910,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.005408117987554879</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5960,7 +5960,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K57">
         <v>0.002954610043434544</v>
@@ -6010,7 +6010,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -6028,10 +6028,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K58">
         <v>0.002954610043434544</v>
@@ -6060,7 +6060,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -6078,10 +6078,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K59">
         <v>0.00290494919493247</v>
@@ -6110,7 +6110,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -6128,10 +6128,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K60">
         <v>0.00290494919493247</v>
@@ -6160,7 +6160,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C61">
         <v>7</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>288</v>
@@ -6210,7 +6210,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -6228,10 +6228,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K62">
         <v>0.002802989200458656</v>
@@ -6260,7 +6260,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -6278,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K63">
         <v>0.002802989200458656</v>
@@ -6310,25 +6310,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C64">
         <v>7</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>289</v>
@@ -6360,25 +6360,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C65">
         <v>7</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>289</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>290</v>
@@ -6410,25 +6410,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.005058831154169934</v>
+        <v>0.005129504608952339</v>
       </c>
       <c r="C66">
         <v>7</v>
       </c>
       <c r="D66">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E66">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>291</v>
@@ -6460,28 +6460,28 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.005058831154169934</v>
+        <v>0.004748998468844016</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>289</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K67">
         <v>0.002750592258816704</v>
@@ -6510,13 +6510,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.005058831154169934</v>
+        <v>0.004748998468844016</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6528,10 +6528,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K68">
         <v>0.002750592258816704</v>
@@ -6560,7 +6560,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004683567563886099</v>
+        <v>0.004748998468844016</v>
       </c>
       <c r="C69">
         <v>6</v>
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>292</v>
@@ -6610,7 +6610,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004683567563886099</v>
+        <v>0.004748998468844016</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>293</v>
@@ -6660,7 +6660,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004683567563886099</v>
+        <v>0.004748998468844016</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -6678,10 +6678,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K71">
         <v>0.002587041886670169</v>
@@ -6710,25 +6710,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004683567563886099</v>
+        <v>0.004748998468844016</v>
       </c>
       <c r="C72">
         <v>6</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>13</v>
+        <v>394</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>294</v>
@@ -6760,25 +6760,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004683567563886099</v>
+        <v>0.004748998468844016</v>
       </c>
       <c r="C73">
         <v>6</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>295</v>
@@ -6810,25 +6810,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004683567563886099</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>394</v>
+        <v>247</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>296</v>
@@ -6860,25 +6860,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004683567563886099</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>297</v>
@@ -6910,7 +6910,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -6928,10 +6928,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K76">
         <v>0.002530176879145107</v>
@@ -6960,7 +6960,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -6978,10 +6978,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K77">
         <v>0.002472004117337792</v>
@@ -7010,7 +7010,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K78">
         <v>0.002472004117337792</v>
@@ -7060,7 +7060,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>298</v>
@@ -7110,7 +7110,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -7128,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K80">
         <v>0.002412428998439026</v>
@@ -7160,7 +7160,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -7178,10 +7178,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K81">
         <v>0.002412428998439026</v>
@@ -7210,7 +7210,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K82">
         <v>0.002412428998439026</v>
@@ -7260,28 +7260,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C83">
         <v>5</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>11</v>
+        <v>1098</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K83">
         <v>0.002351344931923865</v>
@@ -7310,28 +7310,28 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.004275492673899891</v>
+        <v>0.004335222644905605</v>
       </c>
       <c r="C84">
         <v>5</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K84">
         <v>0.002351344931923865</v>
@@ -7360,25 +7360,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.004275492673899891</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>1098</v>
+        <v>3</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>299</v>
@@ -7410,25 +7410,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.004275492673899891</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>300</v>
@@ -7460,7 +7460,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -7478,10 +7478,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K87">
         <v>0.002351344931923865</v>
@@ -7510,7 +7510,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>301</v>
@@ -7560,7 +7560,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -7578,10 +7578,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K89">
         <v>0.002288631098551833</v>
@@ -7610,7 +7610,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -7628,10 +7628,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K90">
         <v>0.002288631098551833</v>
@@ -7660,25 +7660,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C91">
         <v>4</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>302</v>
@@ -7710,25 +7710,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>303</v>
@@ -7760,25 +7760,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C93">
         <v>4</v>
       </c>
       <c r="D93">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E93">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="F93">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>304</v>
@@ -7810,28 +7810,28 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
       <c r="D94">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E94">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F94">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K94">
         <v>0.002157742092560558</v>
@@ -7860,25 +7860,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003824116902456999</v>
+        <v>0.003877541012642146</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E95">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F95">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>305</v>
@@ -7910,25 +7910,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003824116902456999</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>306</v>
@@ -7960,25 +7960,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003824116902456999</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>307</v>
@@ -8010,7 +8010,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -8028,10 +8028,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K98">
         <v>0.002089224797474446</v>
@@ -8060,7 +8060,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>308</v>
@@ -8110,7 +8110,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>309</v>
@@ -8160,25 +8160,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>310</v>
@@ -8210,25 +8210,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>311</v>
@@ -8260,25 +8260,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E103">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="F103">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>312</v>
@@ -8310,28 +8310,28 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E104">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F104">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K104">
         <v>0.002018382909845569</v>
@@ -8360,25 +8360,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C105">
         <v>3</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E105">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="F105">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>84</v>
+        <v>288</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>313</v>
@@ -8410,25 +8410,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
       <c r="D106">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E106">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F106">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>314</v>
@@ -8460,28 +8460,28 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C107">
         <v>3</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E107">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="F107">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K107">
         <v>0.001944962438488514</v>
@@ -8510,28 +8510,28 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
       <c r="D108">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E108">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F108">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K108">
         <v>0.001944962438488514</v>
@@ -8560,28 +8560,28 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
       <c r="D109">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E109">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F109">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K109">
         <v>0.001944962438488514</v>
@@ -8610,28 +8610,28 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
       <c r="D110">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E110">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F110">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K110">
         <v>0.001944962438488514</v>
@@ -8660,13 +8660,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
       <c r="D111">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E111">
         <v>0.97</v>
@@ -8678,10 +8678,10 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K111">
         <v>0.001944962438488514</v>
@@ -8710,28 +8710,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E112">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F112">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K112">
         <v>0.001868659466972437</v>
@@ -8760,28 +8760,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.003311782384569219</v>
+        <v>0.003358049021164135</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
       <c r="D113">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="E113">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F113">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K113">
         <v>0.001868659466972437</v>
@@ -8810,28 +8810,28 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.003311782384569219</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K114">
         <v>0.001868659466972437</v>
@@ -8860,25 +8860,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.003311782384569219</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>315</v>
@@ -8910,7 +8910,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>316</v>
@@ -8960,7 +8960,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -8981,7 +8981,7 @@
         <v>4</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K117">
         <v>0.001868659466972437</v>
@@ -9010,7 +9010,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -9028,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K118">
         <v>0.001868659466972437</v>
@@ -9060,7 +9060,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -9078,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K119">
         <v>0.001789105228844921</v>
@@ -9110,7 +9110,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>317</v>
@@ -9160,7 +9160,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>318</v>
@@ -9210,7 +9210,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -9228,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>319</v>
@@ -9260,7 +9260,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -9278,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>320</v>
@@ -9310,7 +9310,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>321</v>
@@ -9360,7 +9360,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>322</v>
@@ -9410,7 +9410,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>164</v>
+        <v>371</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>323</v>
@@ -9460,28 +9460,28 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K127">
         <v>0.001705844903927306</v>
@@ -9510,25 +9510,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>371</v>
+        <v>99</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>324</v>
@@ -9560,25 +9560,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E129">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F129">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>325</v>
@@ -9610,13 +9610,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E130">
         <v>0.97</v>
@@ -9628,7 +9628,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>326</v>
@@ -9660,25 +9660,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E131">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F131">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>327</v>
@@ -9710,13 +9710,13 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E132">
         <v>0.97</v>
@@ -9728,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>328</v>
@@ -9760,25 +9760,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E133">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F133">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>329</v>
@@ -9810,25 +9810,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="E134">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F134">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>330</v>
@@ -9860,28 +9860,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E135">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F135">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K135">
         <v>0.001705844903927306</v>
@@ -9910,28 +9910,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="E136">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F136">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>266</v>
+        <v>513</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K136">
         <v>0.001705844903927306</v>
@@ -9960,28 +9960,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E137">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F137">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K137">
         <v>0.001705844903927306</v>
@@ -10010,25 +10010,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E138">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F138">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>513</v>
+        <v>103</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>331</v>
@@ -10060,25 +10060,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="E139">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F139">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>332</v>
@@ -10110,25 +10110,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>333</v>
@@ -10160,25 +10160,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002704058993777439</v>
+        <v>0.002741835544368214</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
       <c r="D141">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>334</v>
@@ -10210,13 +10210,13 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002704058993777439</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>335</v>
@@ -10260,25 +10260,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002704058993777439</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>336</v>
@@ -10310,7 +10310,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10328,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>337</v>
@@ -10360,28 +10360,28 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K145">
         <v>0.001618306569420419</v>
@@ -10410,7 +10410,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10428,10 +10428,10 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K146">
         <v>0.001618306569420419</v>
@@ -10460,7 +10460,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>338</v>
@@ -10510,7 +10510,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10528,10 +10528,10 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K148">
         <v>0.001618306569420419</v>
@@ -10560,25 +10560,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>339</v>
@@ -10610,7 +10610,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10631,7 +10631,7 @@
         <v>6</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K150">
         <v>0.001618306569420419</v>
@@ -10660,25 +10660,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>340</v>
@@ -10710,7 +10710,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10728,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>341</v>
@@ -10760,7 +10760,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -10778,10 +10778,10 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K153">
         <v>0.001525754065701222</v>
@@ -10810,7 +10810,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>342</v>
@@ -10860,7 +10860,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>343</v>
@@ -10910,7 +10910,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -10928,10 +10928,10 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K156">
         <v>0.001525754065701222</v>
@@ -10960,7 +10960,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>344</v>
@@ -11010,28 +11010,28 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K158">
         <v>0.001525754065701222</v>
@@ -11060,7 +11060,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>345</v>
@@ -11110,28 +11110,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E160">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F160">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K160">
         <v>0.001525754065701222</v>
@@ -11160,7 +11160,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11178,10 +11178,10 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K161">
         <v>0.001525754065701222</v>
@@ -11210,25 +11210,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>346</v>
@@ -11260,7 +11260,7 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -11278,10 +11278,10 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K163">
         <v>0.001525754065701222</v>
@@ -11310,25 +11310,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>347</v>
@@ -11360,7 +11360,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11378,10 +11378,10 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K165">
         <v>0.001427212242582838</v>
@@ -11410,25 +11410,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F166">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>348</v>
@@ -11460,25 +11460,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>349</v>
@@ -11510,25 +11510,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E168">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F168">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>350</v>
@@ -11560,25 +11560,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>351</v>
@@ -11610,25 +11610,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>352</v>
@@ -11660,7 +11660,7 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>353</v>
@@ -11710,25 +11710,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>354</v>
@@ -11760,25 +11760,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>355</v>
@@ -11810,28 +11810,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F174">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K174">
         <v>0.001427212242582838</v>
@@ -11860,25 +11860,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>356</v>
@@ -11910,25 +11910,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>357</v>
@@ -11960,25 +11960,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E177">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F177">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>358</v>
@@ -12010,25 +12010,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F178">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>359</v>
@@ -12060,25 +12060,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>360</v>
@@ -12110,7 +12110,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12128,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>361</v>
@@ -12160,25 +12160,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>362</v>
@@ -12210,25 +12210,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E182">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F182">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>363</v>
@@ -12260,25 +12260,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F183">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>364</v>
@@ -12310,25 +12310,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>365</v>
@@ -12360,25 +12360,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E185">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F185">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>366</v>
@@ -12410,25 +12410,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>24</v>
+        <v>339</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>367</v>
@@ -12460,28 +12460,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E187">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F187">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K187">
         <v>0.001321341780824649</v>
@@ -12510,25 +12510,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F188">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>339</v>
+        <v>57</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>368</v>
@@ -12560,7 +12560,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12578,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>369</v>
@@ -12610,25 +12610,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>370</v>
@@ -12660,25 +12660,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F191">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>371</v>
@@ -12710,25 +12710,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>372</v>
@@ -12760,19 +12760,19 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E193">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F193">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
@@ -12810,25 +12810,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E194">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F194">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>374</v>
@@ -12860,28 +12860,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F195">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K195">
         <v>0.001321341780824649</v>
@@ -12910,25 +12910,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>375</v>
@@ -12960,25 +12960,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E197">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F197">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>376</v>
@@ -13010,25 +13010,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>377</v>
@@ -13060,7 +13060,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13078,10 +13078,10 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K199">
         <v>0.001321341780824649</v>
@@ -13110,25 +13110,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>378</v>
@@ -13160,7 +13160,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13178,7 +13178,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>379</v>
@@ -13210,28 +13210,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K202">
         <v>0.001321341780824649</v>
@@ -13260,25 +13260,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E203">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F203">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>380</v>
@@ -13310,25 +13310,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E204">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F204">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>381</v>
@@ -13360,25 +13360,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E205">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F205">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>382</v>
@@ -13410,7 +13410,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13428,7 +13428,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>383</v>
@@ -13460,25 +13460,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E207">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F207">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>384</v>
@@ -13510,25 +13510,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F208">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>385</v>
@@ -13560,25 +13560,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F209">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>386</v>
@@ -13610,25 +13610,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E210">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F210">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>387</v>
@@ -13660,25 +13660,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E211">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F211">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>388</v>
@@ -13710,7 +13710,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13728,10 +13728,10 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K212">
         <v>0.001206214499219513</v>
@@ -13760,25 +13760,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F213">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>389</v>
@@ -13810,25 +13810,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>390</v>
@@ -13860,25 +13860,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E215">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F215">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>391</v>
@@ -13910,25 +13910,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>392</v>
@@ -13960,25 +13960,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F217">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>393</v>
@@ -14010,25 +14010,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E218">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F218">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>394</v>
@@ -14060,25 +14060,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>395</v>
@@ -14110,25 +14110,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E220">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F220">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>396</v>
@@ -14160,28 +14160,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K221">
         <v>0.001206214499219513</v>
@@ -14210,25 +14210,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E222">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F222">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>397</v>
@@ -14260,7 +14260,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14278,7 +14278,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>398</v>
@@ -14310,7 +14310,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14328,7 +14328,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>399</v>
@@ -14360,25 +14360,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E225">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F225">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>400</v>
@@ -14410,25 +14410,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E226">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F226">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>401</v>
@@ -14460,25 +14460,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E227">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F227">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>402</v>
@@ -14510,25 +14510,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E228">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F228">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>403</v>
@@ -14560,25 +14560,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E229">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F229">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>404</v>
@@ -14610,25 +14610,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E230">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F230">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>405</v>
@@ -14660,25 +14660,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E231">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F231">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>406</v>
@@ -14710,25 +14710,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="E232">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F232">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>407</v>
@@ -14760,25 +14760,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E233">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F233">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>408</v>
@@ -14810,25 +14810,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="E234">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F234">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>409</v>
@@ -14860,25 +14860,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E235">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F235">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>410</v>
@@ -14910,28 +14910,28 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E236">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F236">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K236">
         <v>0.001078871046280279</v>
@@ -14960,25 +14960,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E237">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F237">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>411</v>
@@ -15010,25 +15010,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E238">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F238">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>412</v>
@@ -15060,25 +15060,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E239">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F239">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>413</v>
@@ -15110,25 +15110,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E240">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F240">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>414</v>
@@ -15160,25 +15160,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E241">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F241">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>415</v>
@@ -15210,25 +15210,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E242">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F242">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>416</v>
@@ -15260,25 +15260,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E243">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F243">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>417</v>
@@ -15310,25 +15310,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E244">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F244">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>418</v>
@@ -15360,28 +15360,28 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E245">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F245">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K245">
         <v>0.001078871046280279</v>
@@ -15410,25 +15410,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E246">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F246">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>419</v>
@@ -15460,28 +15460,28 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E247">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F247">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K247">
         <v>0.001078871046280279</v>
@@ -15510,25 +15510,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E248">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F248">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>420</v>
@@ -15560,25 +15560,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E249">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F249">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>421</v>
@@ -15610,25 +15610,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E250">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F250">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>422</v>
@@ -15660,25 +15660,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E251">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F251">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>423</v>
@@ -15710,28 +15710,28 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E252">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F252">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K252">
         <v>0.001078871046280279</v>
@@ -15760,25 +15760,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="E253">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F253">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>424</v>
@@ -15810,7 +15810,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -15828,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>425</v>
@@ -15860,25 +15860,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="E255">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F255">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>426</v>
@@ -15910,25 +15910,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E256">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F256">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>427</v>
@@ -15960,25 +15960,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E257">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F257">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>428</v>
@@ -16010,25 +16010,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E258">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F258">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>429</v>
@@ -16060,25 +16060,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E259">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F259">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>430</v>
@@ -16110,25 +16110,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="E260">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F260">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>431</v>
@@ -16160,25 +16160,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>432</v>
@@ -16210,28 +16210,28 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F262">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K262">
         <v>0.001078871046280279</v>
@@ -16260,25 +16260,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>433</v>
@@ -16310,28 +16310,28 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K264">
         <v>0.001078871046280279</v>
@@ -16360,28 +16360,28 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E265">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F265">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K265">
         <v>0.001078871046280279</v>
@@ -16410,28 +16410,28 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E266">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F266">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H266">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K266">
         <v>0.001078871046280279</v>
@@ -16460,25 +16460,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E267">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F267">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>434</v>
@@ -16510,25 +16510,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F268">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>435</v>
@@ -16560,25 +16560,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E269">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F269">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>436</v>
@@ -16610,25 +16610,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E270">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F270">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>437</v>
@@ -16660,25 +16660,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>438</v>
@@ -16710,25 +16710,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E272">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F272">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H272">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>439</v>
@@ -16760,7 +16760,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0019120584512285</v>
+        <v>0.001938770506321073</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -16778,7 +16778,7 @@
         <v>0</v>
       </c>
       <c r="H273">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>440</v>
@@ -16806,30 +16806,6 @@
       </c>
     </row>
     <row r="274" spans="1:17">
-      <c r="A274" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B274">
-        <v>0.0019120584512285</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <v>1</v>
-      </c>
-      <c r="E274">
-        <v>0</v>
-      </c>
-      <c r="F274">
-        <v>1</v>
-      </c>
-      <c r="G274" t="b">
-        <v>0</v>
-      </c>
-      <c r="H274">
-        <v>11</v>
-      </c>
       <c r="J274" s="1" t="s">
         <v>441</v>
       </c>
@@ -16856,30 +16832,6 @@
       </c>
     </row>
     <row r="275" spans="1:17">
-      <c r="A275" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B275">
-        <v>0.0019120584512285</v>
-      </c>
-      <c r="C275">
-        <v>1</v>
-      </c>
-      <c r="D275">
-        <v>1</v>
-      </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="F275">
-        <v>1</v>
-      </c>
-      <c r="G275" t="b">
-        <v>0</v>
-      </c>
-      <c r="H275">
-        <v>10</v>
-      </c>
       <c r="J275" s="1" t="s">
         <v>442</v>
       </c>
@@ -16907,7 +16859,7 @@
     </row>
     <row r="276" spans="1:17">
       <c r="J276" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K276">
         <v>0.001078871046280279</v>
@@ -17011,7 +16963,7 @@
     </row>
     <row r="280" spans="1:17">
       <c r="J280" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K280">
         <v>0.0009343297334862185</v>
@@ -17115,7 +17067,7 @@
     </row>
     <row r="284" spans="1:17">
       <c r="J284" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K284">
         <v>0.0009343297334862185</v>
@@ -17271,7 +17223,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K290">
         <v>0.0009343297334862185</v>
@@ -17349,7 +17301,7 @@
     </row>
     <row r="293" spans="10:17">
       <c r="J293" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K293">
         <v>0.0009343297334862185</v>
@@ -17713,7 +17665,7 @@
     </row>
     <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K307">
         <v>0.0009343297334862185</v>
@@ -18129,7 +18081,7 @@
     </row>
     <row r="323" spans="10:17">
       <c r="J323" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K323">
         <v>0.0009343297334862185</v>
@@ -18441,7 +18393,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K335">
         <v>0.0009343297334862185</v>
@@ -18493,7 +18445,7 @@
     </row>
     <row r="337" spans="10:17">
       <c r="J337" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K337">
         <v>0.0009343297334862185</v>
@@ -18701,7 +18653,7 @@
     </row>
     <row r="345" spans="10:17">
       <c r="J345" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K345">
         <v>0.0009343297334862185</v>
@@ -18909,7 +18861,7 @@
     </row>
     <row r="353" spans="10:17">
       <c r="J353" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K353">
         <v>0.0009343297334862185</v>
@@ -19065,7 +19017,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K359">
         <v>0.0007628770328506109</v>
@@ -19533,7 +19485,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K377">
         <v>0.0007628770328506109</v>
@@ -19793,7 +19745,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K387">
         <v>0.0007628770328506109</v>
@@ -19897,7 +19849,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K391">
         <v>0.0007628770328506109</v>
@@ -20625,7 +20577,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K419">
         <v>0.0007628770328506109</v>
@@ -21015,7 +20967,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K434">
         <v>0.0007628770328506109</v>
@@ -21041,7 +20993,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K435">
         <v>0.0007628770328506109</v>
@@ -21119,7 +21071,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K438">
         <v>0.0007628770328506109</v>
@@ -21353,7 +21305,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K447">
         <v>0.0007628770328506109</v>
@@ -21587,7 +21539,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K456">
         <v>0.0007628770328506109</v>
@@ -21821,7 +21773,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K465">
         <v>0.0007628770328506109</v>
@@ -22055,7 +22007,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K474">
         <v>0.0007628770328506109</v>
@@ -23199,7 +23151,7 @@
     </row>
     <row r="518" spans="10:17">
       <c r="J518" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K518">
         <v>0.0005394355231401396</v>
@@ -23303,7 +23255,7 @@
     </row>
     <row r="522" spans="10:17">
       <c r="J522" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K522">
         <v>0.0005394355231401396</v>
@@ -23927,7 +23879,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K546">
         <v>0.0005394355231401396</v>
@@ -24213,7 +24165,7 @@
     </row>
     <row r="557" spans="10:17">
       <c r="J557" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K557">
         <v>0.0005394355231401396</v>
@@ -25435,7 +25387,7 @@
     </row>
     <row r="604" spans="10:17">
       <c r="J604" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K604">
         <v>0.0005394355231401396</v>
@@ -26007,7 +25959,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K626">
         <v>0.0005394355231401396</v>
@@ -26475,7 +26427,7 @@
     </row>
     <row r="644" spans="10:17">
       <c r="J644" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K644">
         <v>0.0005394355231401396</v>
@@ -26787,7 +26739,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K656">
         <v>0.0005394355231401396</v>
@@ -27229,7 +27181,7 @@
     </row>
     <row r="673" spans="10:17">
       <c r="J673" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K673">
         <v>0.0005394355231401396</v>
@@ -28243,7 +28195,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K712">
         <v>0.0005394355231401396</v>
@@ -28477,7 +28429,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K721">
         <v>0.0005394355231401396</v>
@@ -28529,7 +28481,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K723">
         <v>0.0005394355231401396</v>
@@ -29881,7 +29833,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K775">
         <v>0.0005394355231401396</v>
@@ -30089,7 +30041,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K783">
         <v>0.0005394355231401396</v>
@@ -30843,7 +30795,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K812">
         <v>0.0005394355231401396</v>
